--- a/biology/Zoologie/Acanthinodera_cumingii/Acanthinodera_cumingii.xlsx
+++ b/biology/Zoologie/Acanthinodera_cumingii/Acanthinodera_cumingii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthinodera cumingii est une espèce de capricornes du genre monotypique Acanthinodera[1]. Cet insecte est la proie de nombreux prédateurs comme le Guigna, le Renard de Magellan, le Renard gris d'Argentine ou la Chouette effraie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthinodera cumingii est une espèce de capricornes du genre monotypique Acanthinodera. Cet insecte est la proie de nombreux prédateurs comme le Guigna, le Renard de Magellan, le Renard gris d'Argentine ou la Chouette effraie.
 </t>
         </is>
       </c>
